--- a/ComputerConfigurator/Resources/SSD.xlsx
+++ b/ComputerConfigurator/Resources/SSD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35BDBDC-0861-4779-A56C-CDE37A41F470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Название</t>
   </si>
@@ -57,15 +51,6 @@
     <t>https://www.dns-shop.ru/product/20087c59b0593332/120-gb-ssd-nakopitel-goodram-cl100-gen3-ssdpr-cl100-120-g3/characteristics/</t>
   </si>
   <si>
-    <t>Patriot Burst Elite</t>
-  </si>
-  <si>
-    <t>Patriot</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/07c26d04cfd51b80/120-gb-ssd-nakopitel-patriot-burst-elite-pbe120gs25ssdr/characteristics/</t>
-  </si>
-  <si>
     <t>A-Data SU630</t>
   </si>
   <si>
@@ -81,15 +66,9 @@
     <t>https://www.dns-shop.ru/product/4948ea02b0593332/240-gb-ssd-nakopitel-goodram-cl100-gen3-ssdpr-cl100-240-g3/characteristics/</t>
   </si>
   <si>
-    <t>SiliconPower Slim S55</t>
-  </si>
-  <si>
     <t>SiliconPower</t>
   </si>
   <si>
-    <t>https://www.dns-shop.ru/product/60553317fd993120/240-gb-ssd-nakopitel-siliconpower-slim-s55-sp240gbss3s55s25/characteristics/</t>
-  </si>
-  <si>
     <t>Goodram Iridium</t>
   </si>
   <si>
@@ -102,24 +81,6 @@
     <t>https://www.dns-shop.ru/product/d88597346ad83120/120-gb-ssd-nakopitel-siliconpower-slim-s70-sp120gbss3s70s25/characteristics/</t>
   </si>
   <si>
-    <t>AMD Radeon R5 Series</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/35f841de9bfb3330/240-gb-ssd-nakopitel-amd-radeon-r5-series-r5sl240g/characteristics/</t>
-  </si>
-  <si>
-    <t>Apacer AS340 PANTHER</t>
-  </si>
-  <si>
-    <t>Apacer</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/9eeb5026f8b53330/240-gb-ssd-nakopitel-apacer-as340-panther-ap240gas340g-1/characteristics/</t>
-  </si>
-  <si>
     <t>Smartbuy Revival 3</t>
   </si>
   <si>
@@ -141,12 +102,6 @@
     <t>https://www.dns-shop.ru/product/d3853cee860b3330/120-gb-ssd-nakopitel-smartbuy-ignition-plus-sb120gb-ignp-25sat3/characteristics/</t>
   </si>
   <si>
-    <t>Foxline</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/85538bf53ef91b80/256-gb-ssd-nakopitel-foxline-flssd256x5se/characteristics/</t>
-  </si>
-  <si>
     <t>Sandisk Ultra 3D</t>
   </si>
   <si>
@@ -156,12 +111,6 @@
     <t>https://www.dns-shop.ru/product/f47eb045154c1b80/250-gb-ssd-nakopitel-sandisk-ultra-3d-sdssdh3-250g-g25/characteristics/</t>
   </si>
   <si>
-    <t>A-Data SU750</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/bfa2aede49291b80/256-gb-ssd-nakopitel-a-data-su750-asu750ss-256gt-c/characteristics/</t>
-  </si>
-  <si>
     <t>Neo Forza Zion NFS01</t>
   </si>
   <si>
@@ -180,9 +129,6 @@
     <t>https://www.dns-shop.ru/product/f340a220ff391b80/512-gb-ssd-nakopitel-siliconpower-ace-a58-sp512gbss3a58a25/characteristics/</t>
   </si>
   <si>
-    <t>https://www.dns-shop.ru/product/2d1c7a1f2fff3332/480-gb-ssd-nakopitel-neo-forza-zion-nfs01-nfs011sa348-6007200/characteristics/</t>
-  </si>
-  <si>
     <t>WD Green</t>
   </si>
   <si>
@@ -202,15 +148,6 @@
   </si>
   <si>
     <t>https://www.dns-shop.ru/product/919ee987498c3330/256-gb-ssd-nakopitel-smartbuy-s11t-sb256gb-s11t-msat3/characteristics/</t>
-  </si>
-  <si>
-    <t>ADATA SU800</t>
-  </si>
-  <si>
-    <t>ADATA</t>
-  </si>
-  <si>
-    <t>https://www.dns-shop.ru/product/32a1fce964ee3330/512-gb-ssd-nakopitel-adata-su800-asu800ss-512gt-c/characteristics/</t>
   </si>
   <si>
     <t>HP S700</t>
@@ -225,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,27 +332,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,24 +366,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -640,14 +541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
@@ -658,7 +559,7 @@
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,17 +573,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -706,7 +607,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -730,33 +631,32 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3699</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>480</v>
+      </c>
+      <c r="E4">
+        <v>460</v>
+      </c>
+      <c r="F4">
+        <v>540</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1799</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <v>320</v>
-      </c>
-      <c r="F4">
-        <v>450</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B5">
         <v>2699</v>
@@ -774,10 +674,10 @@
         <v>520</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -797,35 +697,35 @@
         <v>520</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>2699</v>
+        <v>4850</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>512</v>
       </c>
       <c r="E7">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="F7">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>2799</v>
@@ -843,18 +743,18 @@
         <v>550</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2799</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>120</v>
@@ -866,64 +766,64 @@
         <v>500</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>2799</v>
+        <v>5499</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="E10">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="F10">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>2799</v>
+        <v>4899</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E11">
-        <v>380</v>
+        <v>545</v>
       </c>
       <c r="F11">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>2799</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>240</v>
@@ -935,18 +835,18 @@
         <v>550</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <v>3299</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>256</v>
@@ -958,18 +858,18 @@
         <v>520</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>3350</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>120</v>
@@ -981,41 +881,41 @@
         <v>560</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>3350</v>
+        <v>5199</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>256</v>
       </c>
       <c r="E15">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>3399</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>250</v>
@@ -1027,41 +927,41 @@
         <v>550</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>3399</v>
+        <v>4899</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E17">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="F17">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>3399</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>256</v>
@@ -1073,244 +973,60 @@
         <v>560</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>3699</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>480</v>
-      </c>
-      <c r="E19">
-        <v>460</v>
-      </c>
-      <c r="F19">
-        <v>540</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20">
-        <v>4850</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>512</v>
-      </c>
-      <c r="E20">
-        <v>530</v>
-      </c>
-      <c r="F20">
-        <v>560</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3">
-        <v>4899</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="3">
-        <v>480</v>
-      </c>
-      <c r="E21" s="3">
-        <v>510</v>
-      </c>
-      <c r="F21" s="3">
-        <v>560</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>4899</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22">
-        <v>480</v>
-      </c>
-      <c r="E22">
-        <v>545</v>
-      </c>
-      <c r="F22">
-        <v>545</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23">
-        <v>4899</v>
-      </c>
-      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D23">
-        <v>512</v>
-      </c>
-      <c r="E23">
-        <v>500</v>
-      </c>
-      <c r="F23">
-        <v>560</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24">
-        <v>5199</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>256</v>
-      </c>
-      <c r="E24">
-        <v>465</v>
-      </c>
-      <c r="F24">
-        <v>560</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25">
-        <v>5199</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25">
-        <v>512</v>
-      </c>
-      <c r="E25">
-        <v>520</v>
-      </c>
-      <c r="F25">
-        <v>560</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26">
-        <v>5499</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26">
-        <v>500</v>
-      </c>
-      <c r="E26">
-        <v>510</v>
-      </c>
-      <c r="F26">
-        <v>550</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{1D272088-6C6C-48A2-8756-21E482A7EF2D}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{069685BA-8489-4BB4-B022-960B97CBDD47}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{A9D517AA-2D47-4A4D-83C2-E4789DC313D8}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{4940EB5C-2A4E-49DD-8229-FD5436F2A6F2}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{A3744527-F7FC-43DF-86BB-1EC952C5B67D}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{9BC8F520-1EBC-4861-988B-8EDCCC8B4D68}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{6504171B-B10C-44AB-B6FE-5EE6CC30A646}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{757DAE4B-6102-428A-823D-510E747621D2}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{9F422AF1-A20E-40AA-92B0-87DA4AB3C455}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{7D3942E9-A08C-40F2-A7D3-0AB234ACB50A}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{864A6028-2526-4579-940F-6D40333F7640}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{C781F08A-D8A5-490E-A745-54F7B5146D2C}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{327E4069-AFB0-498B-8555-DB3ECBDB355E}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{9DDD2876-E597-4421-8425-6C871F6ED0BD}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{B55F712B-48A7-49BF-A921-6461ED070658}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{6132D8E6-B6A2-45F8-9C00-94F8716E1D59}"/>
-    <hyperlink ref="G19" r:id="rId17" xr:uid="{5CC86FB7-0FB3-4D5C-B117-93C1E2F6369B}"/>
-    <hyperlink ref="G20" r:id="rId18" xr:uid="{945016BE-54D7-4E96-8C8A-DCDEC7975832}"/>
-    <hyperlink ref="G22" r:id="rId19" xr:uid="{E2E1371A-A29F-489E-8154-A1F9DE3E468B}"/>
-    <hyperlink ref="G23" r:id="rId20" xr:uid="{7F5ED135-1961-4C96-9874-07F39FEB5DB7}"/>
-    <hyperlink ref="G24" r:id="rId21" xr:uid="{65EB6A69-64E8-4217-A690-EDDFD28B11E3}"/>
-    <hyperlink ref="G25" r:id="rId22" xr:uid="{2069B259-1EB9-4D34-AA57-DB669B79C934}"/>
-    <hyperlink ref="G26" r:id="rId23" xr:uid="{4BB8C342-A6EB-495E-B1B5-221CDBE35DAB}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId7"/>
+    <hyperlink ref="G13" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G4" r:id="rId11"/>
+    <hyperlink ref="G7" r:id="rId12"/>
+    <hyperlink ref="G11" r:id="rId13"/>
+    <hyperlink ref="G17" r:id="rId14"/>
+    <hyperlink ref="G15" r:id="rId15"/>
+    <hyperlink ref="G10" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
